--- a/webFlask/base.xlsx
+++ b/webFlask/base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>enlace_de_drive</t>
+          <t>es_admin</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>es_admin</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>voto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>voto</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>codificacion</t>
         </is>
@@ -478,36 +473,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>derekexpo@gmail.com</t>
+          <t>dmarmols@miumg.edu.gt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>expo4812</t>
+          <t>09072313365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b2690eca10ed0e6a25ba8ca307c1f718</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?export=download&amp;id=1ad6T_AlcyUmax_Qlw8ifvEOEARMJup-_</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+          <t>43aa90963efd17f41ea64c8a2e8ded98</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Derek Marmol</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>[-0.1028024   0.07925046  0.04417609 -0.05620852 -0.07821578  0.0425368
  -0.01826998 -0.11926338  0.17473069 -0.13404076  0.24059351 -0.03285178
@@ -550,17 +540,12 @@
           <t>0d072c7f733e3759c2d8346cd429fd57</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?export=download&amp;id=1TF89ZanVI79Vk8QCromAwEZBKxqwHhjw</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[-7.74035305e-02  6.03789762e-02  1.61733199e-03 -1.55380345e-03
  -1.51004940e-01  4.20173220e-02  2.03439724e-02 -1.50376186e-01
